--- a/data/trans_orig/P79A7_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P79A7_2023-Dificultad-trans_orig.xlsx
@@ -922,7 +922,7 @@
         <v>5471</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1894</v>
+        <v>1818</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>6973</v>
@@ -931,7 +931,7 @@
         <v>0.7846026965374882</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2715913243368049</v>
+        <v>0.2606589310110457</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -956,7 +956,7 @@
         <v>9200</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5419</v>
+        <v>5074</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>10702</v>
@@ -965,7 +965,7 @@
         <v>0.8596558001652955</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5063679662439942</v>
+        <v>0.4741365838682025</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5076</v>
+        <v>5152</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2153973034625119</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7279639903707348</v>
+        <v>0.7387821026851265</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5283</v>
+        <v>5628</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1403441998347045</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4936320337560055</v>
+        <v>0.5258634161317973</v>
       </c>
     </row>
     <row r="9">
@@ -1292,16 +1292,16 @@
         <v>10147</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6077</v>
+        <v>5152</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>13226</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.7672033953803613</v>
+        <v>0.7672033953803614</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4594948975662281</v>
+        <v>0.3895267782381822</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1</v>
@@ -1326,7 +1326,7 @@
         <v>17477</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11845</v>
+        <v>12137</v>
       </c>
       <c r="T13" s="5" t="n">
         <v>20556</v>
@@ -1335,7 +1335,7 @@
         <v>0.8502132202083884</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5762388957829572</v>
+        <v>0.5904142209495989</v>
       </c>
       <c r="W13" s="6" t="n">
         <v>1</v>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7149</v>
+        <v>8074</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2327966046196386</v>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5405051024337717</v>
+        <v>0.6104732217618178</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8711</v>
+        <v>8419</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1497867797916115</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4237611042170446</v>
+        <v>0.4095857790504011</v>
       </c>
     </row>
     <row r="15">
